--- a/外部設計関連/外部設計書_ログイン.xlsx
+++ b/外部設計関連/外部設計書_ログイン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C066AAEF-36DB-45AF-A3E3-AC75F40CF2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33566FF2-121C-4177-9CE4-3ECF9B16FA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -255,6 +255,31 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID入力欄</t>
+    <rPh sb="2" eb="5">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード入力欄</t>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録へのリンク</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -685,27 +710,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,9 +743,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,6 +760,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1689,156 +1714,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U51" sqref="U51"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -4992,12 +5017,16 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
+      <c r="C79" s="15">
+        <v>3</v>
+      </c>
       <c r="D79" s="16"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
@@ -5034,12 +5063,16 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
+      <c r="C80" s="15">
+        <v>4</v>
+      </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
@@ -5076,12 +5109,16 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="C81" s="15">
+        <v>5</v>
+      </c>
       <c r="D81" s="16"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
@@ -5118,12 +5155,16 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
+      <c r="C82" s="15">
+        <v>6</v>
+      </c>
       <c r="D82" s="16"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>

--- a/外部設計関連/外部設計書_ログイン.xlsx
+++ b/外部設計関連/外部設計書_ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33566FF2-121C-4177-9CE4-3ECF9B16FA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC615556-B485-4FF8-ACC6-6DA27C54FDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -281,6 +281,107 @@
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>id_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_regist_link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>minとmaxは最小と最大の文字数ですか？</t>
+    <rPh sb="8" eb="10">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_users</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p_footer</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -917,6 +1018,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>7.</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
             <a:t>フッター</a:t>
@@ -1712,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AP110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4404,7 +4509,7 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
     </row>
-    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10"/>
@@ -4446,7 +4551,7 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
     </row>
-    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="10"/>
@@ -4488,7 +4593,7 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
     </row>
-    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="10"/>
@@ -4530,7 +4635,7 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
     </row>
-    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="10"/>
@@ -4572,7 +4677,7 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
     </row>
-    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="10"/>
@@ -4614,7 +4719,7 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
     </row>
-    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="10"/>
@@ -4656,7 +4761,7 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="10"/>
@@ -4698,7 +4803,7 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="9"/>
@@ -4740,7 +4845,7 @@
       <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
@@ -4782,7 +4887,7 @@
       <c r="AM73" s="13"/>
       <c r="AN73" s="7"/>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -4824,7 +4929,7 @@
       <c r="AM74" s="12"/>
       <c r="AN74" s="13"/>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4866,7 +4971,7 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="5"/>
     </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="3" t="s">
         <v>10</v>
@@ -4910,7 +5015,7 @@
       <c r="AM76" s="5"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="8"/>
@@ -4951,8 +5056,11 @@
       <c r="AL77" s="8"/>
       <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
-    </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP77" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>11</v>
@@ -5013,24 +5121,31 @@
       <c r="AL78" s="17"/>
       <c r="AM78" s="20"/>
       <c r="AN78" s="7"/>
-    </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP78" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15">
-        <v>3</v>
-      </c>
-      <c r="D79" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16"/>
@@ -5060,26 +5175,32 @@
       <c r="AM79" s="20"/>
       <c r="AN79" s="7"/>
     </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15">
-        <v>4</v>
-      </c>
-      <c r="D80" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -5110,34 +5231,48 @@
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15">
-        <v>5</v>
-      </c>
-      <c r="D81" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
-      <c r="S81" s="16"/>
+      <c r="S81" s="16">
+        <v>1</v>
+      </c>
       <c r="T81" s="19"/>
-      <c r="U81" s="16"/>
+      <c r="U81" s="16">
+        <v>30</v>
+      </c>
       <c r="V81" s="19"/>
-      <c r="W81" s="16"/>
+      <c r="W81" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
-      <c r="AA81" s="16"/>
+      <c r="AA81" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="16"/>
@@ -5156,34 +5291,48 @@
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15">
-        <v>6</v>
-      </c>
-      <c r="D82" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
-      <c r="S82" s="16"/>
+      <c r="S82" s="16">
+        <v>1</v>
+      </c>
       <c r="T82" s="19"/>
-      <c r="U82" s="16"/>
+      <c r="U82" s="16">
+        <v>30</v>
+      </c>
       <c r="V82" s="19"/>
-      <c r="W82" s="16"/>
+      <c r="W82" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
-      <c r="AA82" s="16"/>
+      <c r="AA82" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="16"/>
@@ -5201,16 +5350,24 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16"/>
@@ -5243,16 +5400,24 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>6</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16"/>
@@ -5285,19 +5450,29 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="15">
+        <v>7</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16"/>
+      <c r="O85" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
@@ -6291,46 +6466,88 @@
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-      <c r="Z109" s="12"/>
-      <c r="AA109" s="12"/>
-      <c r="AB109" s="12"/>
-      <c r="AC109" s="12"/>
-      <c r="AD109" s="12"/>
-      <c r="AE109" s="12"/>
-      <c r="AF109" s="12"/>
-      <c r="AG109" s="12"/>
-      <c r="AH109" s="12"/>
-      <c r="AI109" s="12"/>
-      <c r="AJ109" s="12"/>
-      <c r="AK109" s="12"/>
-      <c r="AL109" s="12"/>
-      <c r="AM109" s="12"/>
-      <c r="AN109" s="13"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="19"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="19"/>
+      <c r="AD109" s="16"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+      <c r="AL109" s="17"/>
+      <c r="AM109" s="20"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="12"/>
+      <c r="AF110" s="12"/>
+      <c r="AG110" s="12"/>
+      <c r="AH110" s="12"/>
+      <c r="AI110" s="12"/>
+      <c r="AJ110" s="12"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="12"/>
+      <c r="AM110" s="12"/>
+      <c r="AN110" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計関連/外部設計書_ログイン.xlsx
+++ b/外部設計関連/外部設計書_ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC615556-B485-4FF8-ACC6-6DA27C54FDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4DA1D4-95A4-49FE-87D3-D727F0D771CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -341,23 +341,6 @@
   </si>
   <si>
     <t>link</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メモ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>minとmaxは最小と最大の文字数ですか？</t>
-    <rPh sb="8" eb="10">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>モジスウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1817,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP110"/>
+  <dimension ref="A1:AN110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:J3"/>
@@ -4509,7 +4492,7 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
     </row>
-    <row r="65" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10"/>
@@ -4551,7 +4534,7 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
     </row>
-    <row r="66" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="10"/>
@@ -4593,7 +4576,7 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
     </row>
-    <row r="67" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="10"/>
@@ -4635,7 +4618,7 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
     </row>
-    <row r="68" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="10"/>
@@ -4677,7 +4660,7 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
     </row>
-    <row r="69" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="10"/>
@@ -4719,7 +4702,7 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
     </row>
-    <row r="70" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="10"/>
@@ -4761,7 +4744,7 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
     </row>
-    <row r="71" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="10"/>
@@ -4803,7 +4786,7 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
-    <row r="72" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="9"/>
@@ -4845,7 +4828,7 @@
       <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
     </row>
-    <row r="73" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
@@ -4887,7 +4870,7 @@
       <c r="AM73" s="13"/>
       <c r="AN73" s="7"/>
     </row>
-    <row r="74" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -4929,7 +4912,7 @@
       <c r="AM74" s="12"/>
       <c r="AN74" s="13"/>
     </row>
-    <row r="75" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4971,7 +4954,7 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="5"/>
     </row>
-    <row r="76" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="3" t="s">
         <v>10</v>
@@ -5015,7 +4998,7 @@
       <c r="AM76" s="5"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="8"/>
@@ -5056,11 +5039,8 @@
       <c r="AL77" s="8"/>
       <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
-      <c r="AP77" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>11</v>
@@ -5121,11 +5101,8 @@
       <c r="AL78" s="17"/>
       <c r="AM78" s="20"/>
       <c r="AN78" s="7"/>
-      <c r="AP78" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15">
@@ -5175,7 +5152,7 @@
       <c r="AM79" s="20"/>
       <c r="AN79" s="7"/>
     </row>
-    <row r="80" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15">
@@ -5265,13 +5242,13 @@
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -5325,13 +5302,13 @@
       </c>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -5454,19 +5431,19 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>

--- a/外部設計関連/外部設計書_ログイン.xlsx
+++ b/外部設計関連/外部設計書_ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4DA1D4-95A4-49FE-87D3-D727F0D771CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9D2D41-65F8-41FD-AD22-D0F8AC29388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1085,8 +1085,8 @@
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>110067</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
@@ -1103,8 +1103,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="1559718"/>
-          <a:ext cx="2286000" cy="559594"/>
+          <a:off x="4111625" y="1593585"/>
+          <a:ext cx="2348442" cy="572294"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1209,7 +1209,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>２．ログイン</a:t>
+            <a:t>２．ページタイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1358,8 +1358,8 @@
       <xdr:rowOff>178595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
@@ -1376,8 +1376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4893469" y="5131595"/>
-          <a:ext cx="1559718" cy="321468"/>
+          <a:off x="4556125" y="5241662"/>
+          <a:ext cx="1556808" cy="329934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1802,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -5175,9 +5175,7 @@
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="O80" s="16"/>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -5447,9 +5445,7 @@
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="O85" s="16"/>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>

--- a/外部設計関連/外部設計書_ログイン.xlsx
+++ b/外部設計関連/外部設計書_ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9D2D41-65F8-41FD-AD22-D0F8AC29388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088CDD72-1F1D-4C2D-8AC7-CAF2C4FAA281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -365,6 +365,27 @@
   </si>
   <si>
     <t>p_footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインページ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>御代田里奈</t>
+    <rPh sb="0" eb="5">
+      <t>ミヨタリナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問・相談システム</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -740,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -867,6 +888,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1829,7 +1853,9 @@
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="N1" s="31" t="s">
+        <v>53</v>
+      </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
@@ -1842,7 +1868,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
+      <c r="Y1" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
@@ -1877,7 +1905,9 @@
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="N2" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
@@ -1890,7 +1920,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="Y2" s="46">
+        <v>44356</v>
+      </c>
       <c r="Z2" s="41"/>
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>

--- a/外部設計関連/外部設計書_ログイン.xlsx
+++ b/外部設計関連/外部設計書_ログイン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088CDD72-1F1D-4C2D-8AC7-CAF2C4FAA281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91C71F7-1DF6-4DF2-97B0-91277B0CED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -878,6 +878,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,9 +891,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1826,13 +1826,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -1877,10 +1877,10 @@
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="31"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="45"/>
+      <c r="AG1" s="46"/>
       <c r="AH1" s="38"/>
       <c r="AI1" s="38"/>
       <c r="AJ1" s="38"/>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="46">
+      <c r="Y2" s="42">
         <v>44356</v>
       </c>
       <c r="Z2" s="41"/>
@@ -1929,17 +1929,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
